--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VijayBI\DevOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBI\SCM\GitHubCom\VBI\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8532" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_DevOps_Knowledge" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Misc_Knowledge" sheetId="3" r:id="rId7"/>
     <sheet name="JavaTech_Flow1" sheetId="2" r:id="rId8"/>
     <sheet name="POM_Knowledge" sheetId="4" r:id="rId9"/>
+    <sheet name="MonitoringTools" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>Building Maven Project</t>
   </si>
@@ -398,6 +399,19 @@
   </si>
   <si>
     <t>http://blog.flowdock.com/2014/11/11/chatops-devops-with-hubot/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
+https://www.youtube.com/watch?v=Kqs7UcCJquM
+</t>
+  </si>
+  <si>
+    <t>Analytics with Kibana and Elasticsearch through Hadoop – part 1 – Introduction:
+http://www.rittmanmead.com/2014/11/analytics-with-kibana-and-elasticsearch-through-hadoop-part-1-introduction/</t>
+  </si>
+  <si>
+    <t>About Logstash:
+https://www.elastic.co/guide/en/logstash/current/introduction.html</t>
   </si>
 </sst>
 </file>
@@ -442,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,6 +470,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,23 +757,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -764,12 +781,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -777,22 +794,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -800,37 +817,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -838,17 +855,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -856,19 +873,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="50.5546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +934,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -893,17 +944,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -911,7 +962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -919,7 +970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -927,7 +978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -953,14 +1004,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
@@ -968,7 +1019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -976,7 +1027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
@@ -997,24 +1048,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1032,22 +1083,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1065,42 +1116,42 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1108,7 +1159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1116,7 +1167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1124,7 +1175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1132,7 +1183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1140,17 +1191,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -1173,16 +1224,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="169.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="130.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="169.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="130.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1287,7 +1338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1331,12 +1382,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1344,7 +1395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1352,7 +1403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>Building Maven Project</t>
   </si>
@@ -412,6 +412,10 @@
   <si>
     <t>About Logstash:
 https://www.elastic.co/guide/en/logstash/current/introduction.html</t>
+  </si>
+  <si>
+    <t>Getting Started with ElasticSearch:
+https://www.youtube.com/watch?v=60UsHHsKyN4</t>
   </si>
 </sst>
 </file>
@@ -896,10 +900,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,6 +924,11 @@
     <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>Building Maven Project</t>
   </si>
@@ -401,21 +401,26 @@
     <t>http://blog.flowdock.com/2014/11/11/chatops-devops-with-hubot/</t>
   </si>
   <si>
+    <t>Analytics with Kibana and Elasticsearch through Hadoop – part 1 – Introduction:
+http://www.rittmanmead.com/2014/11/analytics-with-kibana-and-elasticsearch-through-hadoop-part-1-introduction/</t>
+  </si>
+  <si>
+    <t>About Logstash:
+https://www.elastic.co/guide/en/logstash/current/introduction.html</t>
+  </si>
+  <si>
+    <t>Getting Started with ElasticSearch:
+https://www.youtube.com/watch?v=60UsHHsKyN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
 https://www.youtube.com/watch?v=Kqs7UcCJquM
+http://blog.webkid.io/visualize-datasets-with-elk/
 </t>
-  </si>
-  <si>
-    <t>Analytics with Kibana and Elasticsearch through Hadoop – part 1 – Introduction:
-http://www.rittmanmead.com/2014/11/analytics-with-kibana-and-elasticsearch-through-hadoop-part-1-introduction/</t>
-  </si>
-  <si>
-    <t>About Logstash:
-https://www.elastic.co/guide/en/logstash/current/introduction.html</t>
-  </si>
-  <si>
-    <t>Getting Started with ElasticSearch:
-https://www.youtube.com/watch?v=60UsHHsKyN4</t>
   </si>
 </sst>
 </file>
@@ -900,34 +905,37 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="50.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>99</v>
       </c>
     </row>

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>Building Maven Project</t>
   </si>
@@ -414,13 +414,18 @@
   </si>
   <si>
     <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
 https://www.youtube.com/watch?v=Kqs7UcCJquM
 http://blog.webkid.io/visualize-datasets-with-elk/
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logstash pitfalls to avoid those:
+http://logz.io/blog/5-logstash-pitfalls-and-how-to-avoid-them/
+</t>
+  </si>
+  <si>
+    <t>How preprocess logs with logstash:
+http://blog.mmlac.com/how-to-pre-process-logs-with-logstash/</t>
   </si>
 </sst>
 </file>
@@ -905,9 +910,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -916,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
@@ -934,9 +941,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>Building Maven Project</t>
   </si>
@@ -426,6 +426,9 @@
   <si>
     <t>How preprocess logs with logstash:
 http://blog.mmlac.com/how-to-pre-process-logs-with-logstash/</t>
+  </si>
+  <si>
+    <t>http://tales.itnobody.com/2013/07/using-logstash-to-log-smtp-bounces-like-a-boss.html</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -486,6 +489,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,10 +916,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,9 +957,17 @@
         <v>101</v>
       </c>
     </row>
+    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -919,7 +919,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -413,22 +413,23 @@
 https://www.youtube.com/watch?v=60UsHHsKyN4</t>
   </si>
   <si>
+    <t xml:space="preserve">Logstash pitfalls to avoid those:
+http://logz.io/blog/5-logstash-pitfalls-and-how-to-avoid-them/
+</t>
+  </si>
+  <si>
+    <t>How preprocess logs with logstash:
+http://blog.mmlac.com/how-to-pre-process-logs-with-logstash/</t>
+  </si>
+  <si>
+    <t>http://tales.itnobody.com/2013/07/using-logstash-to-log-smtp-bounces-like-a-boss.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
 https://www.youtube.com/watch?v=Kqs7UcCJquM
 http://blog.webkid.io/visualize-datasets-with-elk/
+abc
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logstash pitfalls to avoid those:
-http://logz.io/blog/5-logstash-pitfalls-and-how-to-avoid-them/
-</t>
-  </si>
-  <si>
-    <t>How preprocess logs with logstash:
-http://blog.mmlac.com/how-to-pre-process-logs-with-logstash/</t>
-  </si>
-  <si>
-    <t>http://tales.itnobody.com/2013/07/using-logstash-to-log-smtp-bounces-like-a-boss.html</t>
   </si>
 </sst>
 </file>
@@ -918,18 +919,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="50.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
@@ -949,17 +948,17 @@
     </row>
     <row r="5" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -428,7 +428,6 @@
     <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
 https://www.youtube.com/watch?v=Kqs7UcCJquM
 http://blog.webkid.io/visualize-datasets-with-elk/
-abc
 </t>
   </si>
 </sst>
@@ -919,7 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/DevOps/DevOps_Tracker.xlsx
+++ b/DevOps/DevOps_Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8532" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8532" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_DevOps_Knowledge" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="ChatOps" sheetId="6" r:id="rId3"/>
     <sheet name="DevOps_Setup_info" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
-    <sheet name="NewSQLDB" sheetId="7" r:id="rId6"/>
-    <sheet name="Misc_Knowledge" sheetId="3" r:id="rId7"/>
-    <sheet name="JavaTech_Flow1" sheetId="2" r:id="rId8"/>
-    <sheet name="POM_Knowledge" sheetId="4" r:id="rId9"/>
-    <sheet name="MonitoringTools" sheetId="10" r:id="rId10"/>
+    <sheet name="DevOpsELKFlowOnWindows7(IIS)" sheetId="11" r:id="rId6"/>
+    <sheet name="NewSQLDB" sheetId="7" r:id="rId7"/>
+    <sheet name="Misc_Knowledge" sheetId="3" r:id="rId8"/>
+    <sheet name="JavaTech_Flow1" sheetId="2" r:id="rId9"/>
+    <sheet name="POM_Knowledge" sheetId="4" r:id="rId10"/>
+    <sheet name="DevOpsInputs" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>Building Maven Project</t>
   </si>
@@ -356,79 +357,209 @@
     <t>http://ingorichter.blogspot.com/2012/02/jenkins-change-workspaces-and-build.html</t>
   </si>
   <si>
-    <t>Hubot Enabled - 
-Type: Linux Ubuntu 14.04.2 LTS
-IP: 15.250.144.166 (CRDFTCL0000213)
-End-user: admin
-Pwd: Stackato_517
-Hostname: vsubu1404d</t>
-  </si>
-  <si>
     <t>Jenkin Host</t>
   </si>
   <si>
-    <t>Jenkins Enabled - 
-Type: Linux Ubuntu 14.04.2 LTS
-IP: 15.250.144.166 (CRDFTCL0000213)
-End-user: jenkadmin
-Pwd: vbi517
-Hostname: vsubu1404d</t>
-  </si>
-  <si>
-    <t>Sub_name: Docker Host EG Shared CentOS7 
+    <t>Difference between ssh generated keys i.e. id_rsa and id_dsa</t>
+  </si>
+  <si>
+    <t>Bountysource.com
+https://www.bountysource.com  (vijaykumarbi@gmail.com / vbibot517)</t>
+  </si>
+  <si>
+    <t>https://github.com/ (vijaykumarbi@gmail.com / vbi4206)</t>
+  </si>
+  <si>
+    <t>About Deployments from Chat room (Flowdock) using Hubot</t>
+  </si>
+  <si>
+    <t>http://blog.flowdock.com/2014/11/11/chatops-devops-with-hubot/</t>
+  </si>
+  <si>
+    <t>Analytics with Kibana and Elasticsearch through Hadoop – part 1 – Introduction:
+http://www.rittmanmead.com/2014/11/analytics-with-kibana-and-elasticsearch-through-hadoop-part-1-introduction/</t>
+  </si>
+  <si>
+    <t>About Logstash:
+https://www.elastic.co/guide/en/logstash/current/introduction.html</t>
+  </si>
+  <si>
+    <t>Getting Started with ElasticSearch:
+https://www.youtube.com/watch?v=60UsHHsKyN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logstash pitfalls to avoid those:
+http://logz.io/blog/5-logstash-pitfalls-and-how-to-avoid-them/
+</t>
+  </si>
+  <si>
+    <t>How preprocess logs with logstash:
+http://blog.mmlac.com/how-to-pre-process-logs-with-logstash/</t>
+  </si>
+  <si>
+    <t>http://tales.itnobody.com/2013/07/using-logstash-to-log-smtp-bounces-like-a-boss.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
+https://www.youtube.com/watch?v=Kqs7UcCJquM
+http://blog.webkid.io/visualize-datasets-with-elk/
+</t>
+  </si>
+  <si>
+    <t>To use log4net.elasticsearch:
+https://github.com/jptoto
+https://github.com/jptoto/log4net.ElasticSearch/wiki/01-Project-Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub_name: Docker Host EG Shared CentOS7 
 Docker Enabled - v1.0.1
 Docker Host – Gaurav, Venkat
 Type: Large – CentOS7 docker
 IP: 15.250.144.164 (CRDFTCL0000213)
 End-user: admin
-Pwd: Docker_123456
-Shiva_123456</t>
-  </si>
-  <si>
-    <t>Difference between ssh generated keys i.e. id_rsa and id_dsa</t>
-  </si>
-  <si>
-    <t>Bountysource.com
-https://www.bountysource.com  (vijaykumarbi@gmail.com / vbibot517)</t>
-  </si>
-  <si>
-    <t>https://github.com/ (vijaykumarbi@gmail.com / vbi4206)</t>
-  </si>
-  <si>
-    <t>About Deployments from Chat room (Flowdock) using Hubot</t>
-  </si>
-  <si>
-    <t>http://blog.flowdock.com/2014/11/11/chatops-devops-with-hubot/</t>
-  </si>
-  <si>
-    <t>Analytics with Kibana and Elasticsearch through Hadoop – part 1 – Introduction:
-http://www.rittmanmead.com/2014/11/analytics-with-kibana-and-elasticsearch-through-hadoop-part-1-introduction/</t>
-  </si>
-  <si>
-    <t>About Logstash:
-https://www.elastic.co/guide/en/logstash/current/introduction.html</t>
-  </si>
-  <si>
-    <t>Getting Started with ElasticSearch:
-https://www.youtube.com/watch?v=60UsHHsKyN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logstash pitfalls to avoid those:
-http://logz.io/blog/5-logstash-pitfalls-and-how-to-avoid-them/
+Pwd: Vbi_517
 </t>
   </si>
   <si>
-    <t>How preprocess logs with logstash:
-http://blog.mmlac.com/how-to-pre-process-logs-with-logstash/</t>
-  </si>
-  <si>
-    <t>http://tales.itnobody.com/2013/07/using-logstash-to-log-smtp-bounces-like-a-boss.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo on ElasticSearch, Logstash and Kibana (ELK):
-https://www.youtube.com/watch?v=Kqs7UcCJquM
-http://blog.webkid.io/visualize-datasets-with-elk/
+    <t>Hubot Enabled - 
+Type: Linux Ubuntu 14.04.2 LTS
+IP: 15.250.144.166 (CRDFTCL0000213)
+End-user: admin
+Pwd: Vbi_517
+Hostname: vsubu1404d</t>
+  </si>
+  <si>
+    <t>Jenkins Enabled - 
+Type: Linux Ubuntu 14.04.2 LTS
+IP: 15.250.144.166 (CRDFTCL0000213)
+End-user: jenkadmin
+Pwd: Jenkins_517
+Hostname: vsubu1404d</t>
+  </si>
+  <si>
+    <t>How to use ELK to monitor Performance:
+http://logz.io/blog/elk-monitor-platform-performance/
+Infrastructure metrics with ES stack : https://amsterdam.luminis.eu/2015/10/05/infrastructure-metrics-with-elasticsearch-stack/
+http://stackify.com/monitoring-elasticsearch-getting-right/
+https://developer.ibm.com/open/2015/09/07/using-elasticsearch-and-kibana-with-node-application-metrics/</t>
+  </si>
+  <si>
+    <t>10 ES Metrics to Watch: 
+https://www.oreilly.com/ideas/10-elasticsearch-metrics-to-watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about Windows Performance Monitor: https://technet.microsoft.com/en-us/library/cc749154.aspx
 </t>
+  </si>
+  <si>
+    <t>About Google's Go Programming</t>
+  </si>
+  <si>
+    <t>about elastic top beat.
+https://github.com/elastic/topbeat
+PowerShell.exe -ExecutionPolicy UnRestricted -File .\install-service-winlogbeat.ps1.</t>
+  </si>
+  <si>
+    <t>http://logz.io/blog/iis-log-analyzer/</t>
+  </si>
+  <si>
+    <t>https://improveandrepeat.com/2014/11/using-logstash-to-analyse-iis-log-files-with-kibana/</t>
+  </si>
+  <si>
+    <t>http://serverfault.com/questions/666229/how-to-separate-iis-event-logs-by-application-in-event-viewer</t>
+  </si>
+  <si>
+    <t>https://msdn.microsoft.com/en-us/library/ms524984(v=vs.90).aspx</t>
+  </si>
+  <si>
+    <t>Whole ELK flow for Windows IIS server:
+https://www.ulyaoth.net/resources/tutorial-install-logstash-and-kibana-on-a-windows-server.34/</t>
+  </si>
+  <si>
+    <t>Prepare the server.
+(Here Windows 7, a local machine)</t>
+  </si>
+  <si>
+    <t>Download the latest  JDK and Set System Environment variable as JAVA_HOME to installed/downloaded JDK path also include it /bin folder in System Path variable for CLI execution.</t>
+  </si>
+  <si>
+    <t>Prepare IIS on Windows Server Machine</t>
+  </si>
+  <si>
+    <t>1) Open Server Manager
+2) Add Roles and Features to fully installation and ready to be used.</t>
+  </si>
+  <si>
+    <t>Prepare IIS on Window 7 (A local machine).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Go to Control Panel &gt;&gt; Program and Feature &gt;&gt; Click on "Turn Windows features on or off"  &gt;&gt; Wait, till features are get loaded.
+2) Select "Internet Inormation Services" (IIS) to turn on it.
+3) Install Microsoft Web Platform Installer 5.0 (From URL: http://www.microsoft.com/web/downloads/platform.aspx). Click on downloaded file called "wpilauncher.exe" to install following apps by searching with its name...
+a. "Application Request Routing 3.0" i.e. ARR
+b. URL Rewrite 2.0
+</t>
+  </si>
+  <si>
+    <t>Here why do we have ARR and URL Rewrite</t>
+  </si>
+  <si>
+    <t>Host/Create new website in IIS using IIS Manager.(Here we can create for Kibana host).</t>
+  </si>
+  <si>
+    <t>1) Open IIS Manager.
+2) Create/Add new website i.e. kibana by clicking on "Sites" and providing all required data.
+3) Update hosts profile for newly created website as local machine as host machine.
+4 Setup Reverse Proxy in IIS to newly created website i.e. kibana.</t>
+  </si>
+  <si>
+    <t>* Why do we setup Reverse Proxy.
+* need exaplaination on "To explain it in short the ip you entered "127.0.0.1" and port "5601" this is where Kibana will run on your server, since in my personal opinion it is not recommended to run Kibana directly towards the internet for security reasons and or you might need additional futures you let IIS be the link in-between since this is a well tested web-server."</t>
+  </si>
+  <si>
+    <t>Configure and Start ELK stack.</t>
+  </si>
+  <si>
+    <t>* The reason for this step is that Logstash can do difficult if you have a Elasticsearch output but it is not actually running. (While adding Dependencies for logstash).</t>
+  </si>
+  <si>
+    <t>1. Elasticksearch:
+--&gt; Run ES as service
+--&gt; And configure ES to start automatically on server/desktop boots. 
+2. Logstash:
+--&gt; Download/Create required configuration file for logstash and place it in "logstash\bin" directory.
+--&gt; Create logstash service by installing it using NSSM util.
+--&gt; Install beats plugin to run beats shippers.
+3. Kibana:
+--&gt;  Create kibana service by installing it using NSSM util.
+--&gt; If you wish to adjust the settings of Kibana such as running it on a different port or IP simply go to "C:\path\for\kibana\config\kibana.yml" and play around with the available settings</t>
+  </si>
+  <si>
+    <t>ElastAlert: http://engineeringblog.yelp.com/2015/10/elastalert-alerting-at-scale-with-elasticsearch.html</t>
+  </si>
+  <si>
+    <t>Complete CI Flow with help of ElectricCommander i.e. EC</t>
+  </si>
+  <si>
+    <t>Steps involved in EC&gt;&gt;Porjects&gt;&gt;Procedures&gt;&gt;FedDB_teamforge_Deploy_UFT
+1) Clean Project
+2) Clean Project Copy
+3) CheckOut Files
+4) CheckOut FedDB UFT Files
+5) Build Project
+6) Close UFT and IE
+7) Run test scripts in batch</t>
+  </si>
+  <si>
+    <t>elastic community: https://discuss.elastic.co/</t>
+  </si>
+  <si>
+    <t>user name: vbi517
+Password: vijay63907</t>
+  </si>
+  <si>
+    <t>Real time monitorig of .NET web apps with ELK:
+http://spencerooni.github.io/2015/07/10/real-time-monitoring-of-.net-web-applications-with-logstash-elasticsearch-and-kibana.html</t>
   </si>
 </sst>
 </file>
@@ -777,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -916,10 +1047,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="85" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,45 +1102,113 @@
   <sheetData>
     <row r="1" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A16" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1023,10 +1264,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1041,17 +1282,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.6640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="3" width="29.44140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -1059,7 +1301,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1067,15 +1309,23 @@
         <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1088,37 +1338,122 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1151,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1236,17 +1571,17 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1415,46 +1750,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="85" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>